--- a/ig/ch-epr-ppqm/ValueSet-PpqmFeedRequestHttpMethod.xlsx
+++ b/ig/ch-epr-ppqm/ValueSet-PpqmFeedRequestHttpMethod.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,6 +42,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>PPQm Feed Request HTTP Method</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -51,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T11:21:22+02:00</t>
+    <t>2023-06-30T14:56:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -236,10 +242,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -294,82 +300,86 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -391,50 +401,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
